--- a/CD-valid/Outcomes/Pretest/Example/example.xlsx
+++ b/CD-valid/Outcomes/Pretest/Example/example.xlsx
@@ -6,10 +6,54 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="time_changes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tps_comparisson" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economic_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please insert your TPS function here</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,7 +382,93 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>49.4266055045875</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50.5733944954132</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14678899082568</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.2201834862385</v>
+      </c>
+      <c r="C3" t="n">
+        <v>85.7798165137607</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.5596330275223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>41.5137614678901</v>
+      </c>
+      <c r="C4" t="n">
+        <v>28.3256880733944</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.1880733944957</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47.5917431192664</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.1100917431193</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.4816513761471</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -351,7 +481,13 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
